--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/45_Kars_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/45_Kars_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C6D876-2B60-4BDF-911A-4EE37AB252A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{300D46B2-3F0C-4CA6-9BE6-1F817C222D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{0BB5A4D8-8A54-45AD-B5C8-57616DD7B3AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{584726AA-59FE-4F69-A0D4-AFE9829CD0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -895,13 +895,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FEDCE96F-B6B2-4107-8497-88D3A5886D9B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6CD8CE72-9C16-412B-9844-62A933035779}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{41156622-3062-4BB3-9E6E-01C8D8C3236D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{65A7E912-EAF6-41AB-B771-8DC470BA7401}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{0962E402-4D46-459B-96D7-B2EB1F67DFB6}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{F6793887-0D22-4A26-972D-4ECD97526C34}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{54060D6B-C536-4CB2-877A-58CD2D349E46}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E7160F97-917D-4258-B20C-7E2D40ABC05F}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6E8FCCAA-7D92-4CF8-831C-E58AA7450DAB}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B4C42C80-0633-4680-AC65-036AB72A4273}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{65078A56-C388-416C-8D11-548A3663509C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{5927EE42-BEDF-439C-9289-BD6F24BBFE1A}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{637BCD05-6AE7-486E-8468-156A06BE5935}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{6B817CAB-A939-4291-A5B7-EAE1C6A64573}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9177BB0-4FD2-42B8-A6FE-07B154137255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EA870F-50FA-41DB-99AC-9222EFFF2245}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D3F2CD-0AC3-4D0D-8879-4998DB609A18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEE0800-E907-4EB8-AEBF-ADA8EB5BC56D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DDE915-183B-475F-AC4B-91D79FEF8F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D8CC63-241A-420D-A727-6E7DDE506BFD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5034,7 +5034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E355E3-4045-4595-94B2-EDDC6CA2C268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5A26D-4941-4DBD-87CD-A0981613225C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6285,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD56BBE-CFC7-46E7-A4B0-9C15401AF7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A42C1A-0B2E-4457-869B-F71BE6E0DED0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7548,7 +7548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2128EE-6533-4CFF-9456-957D9EAE8F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCBB85B-8CC0-464E-A11A-5824EDAA8687}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8811,7 +8811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C83D97C-A9E5-474D-9134-9D2B1430A2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544A977E-407D-492B-A1AB-D36E2E1ED2BA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10062,7 +10062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45B1CE6-64EF-4EC2-8AC0-4CD7A4F4A925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAB8B00-1F94-448B-A113-27BC59BC781A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11313,7 +11313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE2EBB-26C3-4237-9B9F-772CB0C5C95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEF06A6-7B02-4A3B-A12E-19CA6D8E07DD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12562,7 +12562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E83324B-5BC2-4987-8DDB-B88E28E19196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15178F1-AB01-4254-B444-4BDBA0548F20}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13813,7 +13813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE93370A-468E-46A9-8C69-D57DBD3E034F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F43B53E-AE31-44BB-BDF0-7E25628A1A93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15064,7 +15064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770C4697-B5E8-44CF-81E7-1E82C0F59CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E56831-3E8E-4C9A-AE8B-F2114540B98F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
